--- a/Docs/TestCase Holidays Project.xlsx
+++ b/Docs/TestCase Holidays Project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\HolidaysProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\HolidayProjectApp\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646BDDCD-CA65-4CF4-B12D-D9A872123DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205A5CDC-B7E0-43FC-B570-C6DFCFCDBD9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="368">
   <si>
     <t>ID</t>
   </si>
@@ -1541,6 +1541,9 @@
   </si>
   <si>
     <t>Employee Page</t>
+  </si>
+  <si>
+    <t>TC 069</t>
   </si>
 </sst>
 </file>
@@ -1996,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4142,6 +4145,9 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>

--- a/Docs/TestCase Holidays Project.xlsx
+++ b/Docs/TestCase Holidays Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\HolidayProjectApp\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205A5CDC-B7E0-43FC-B570-C6DFCFCDBD9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DA9D95-DBF7-4F20-BCCC-F8BDE88D6077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="394">
   <si>
     <t>ID</t>
   </si>
@@ -165,15 +165,6 @@
     <t>1. Ana Maria Bob                       2. Email: anamaria@bt.com  3.Password: AnaMaria111?    4. AnaMaria11?</t>
   </si>
   <si>
-    <t>Site is loading without problems and the Login Page appear</t>
-  </si>
-  <si>
-    <t>1. Open the application on a browser                                               2.Click on All Holiday Link</t>
-  </si>
-  <si>
-    <t>Behaviour of Link All Holiday if the user is not login</t>
-  </si>
-  <si>
     <t>Behaviour of Link My Holiday if the user is not login</t>
   </si>
   <si>
@@ -204,105 +195,10 @@
     <t>1.Email: anamaria1@bt.com                       2.Password: AnaMaria111?</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The message </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"The Email field is not a valid e-mail address."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> will display under fields</t>
-    </r>
-  </si>
-  <si>
     <t>Login user without complete fields</t>
   </si>
   <si>
     <t>Open the application on a browser and click Login Button without complete fields</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">An error message will display under every field and above fields:         </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"The Email field is required.
-The Password field is required."</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The message </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"The Email field is not a valid e-mail address."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> will display under email field and above fields</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The message </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Invalid login attempt."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> will display above fields</t>
-    </r>
   </si>
   <si>
     <r>
@@ -449,6 +345,1068 @@
     <t>Empty email field forgot password</t>
   </si>
   <si>
+    <t>Incorrect email on forgot password field</t>
+  </si>
+  <si>
+    <t>1. Open application                   2. Click on link Forgot your password                                      3. Incorrect email                                                                            4. Click Submit Button</t>
+  </si>
+  <si>
+    <t>3. Email: 111</t>
+  </si>
+  <si>
+    <t>1. Open application                   2. Click on link Forgot your password                                      3. Not register email                                                                            4. Click Submit Button</t>
+  </si>
+  <si>
+    <t>3. Email: dana@bt.com</t>
+  </si>
+  <si>
+    <t>Remember me checkbutton</t>
+  </si>
+  <si>
+    <t>Click on Remember me checkbutton</t>
+  </si>
+  <si>
+    <t>The checkbutton is checked.</t>
+  </si>
+  <si>
+    <t>TC 023</t>
+  </si>
+  <si>
+    <t>TC 024</t>
+  </si>
+  <si>
+    <t>TC 027</t>
+  </si>
+  <si>
+    <t>Create Holiday</t>
+  </si>
+  <si>
+    <t>TC 010</t>
+  </si>
+  <si>
+    <t>TC 001 and TC 010</t>
+  </si>
+  <si>
+    <t>1. Press the Create Button     2. Choose a Start Date               3. Choose a End Date                   4. Choose Type                            5. Press Create Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. StartDate: 10.03.2020              3. EndDate: 20.03.2020              4. Type: Paid                    </t>
+  </si>
+  <si>
+    <t>1. Press Create Button                       2. Choose a Start Date                 3.Choose a End Date                   4. Choose Type                                 5. Press Create Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. StartDate: 03.06.20202             3. EndDate: 01.06.2020              4. Type: Training              </t>
+  </si>
+  <si>
+    <t>Create Holiday with invalid year on StartDate</t>
+  </si>
+  <si>
+    <t>Create Holiday with empty field</t>
+  </si>
+  <si>
+    <t>1. Press Create Button -Holiday                                                    2. Press Create Button</t>
+  </si>
+  <si>
+    <t>1. Press Create Button - Holiday                                              2. Click on Back to List Button</t>
+  </si>
+  <si>
+    <t>Edit Holiday Request</t>
+  </si>
+  <si>
+    <t>TC 001, TC 010 and TC 021</t>
+  </si>
+  <si>
+    <t>1. Press Edit Button                         2. Change the StartDate            3. Change the End Date             4. Press Save Button</t>
+  </si>
+  <si>
+    <t>2. StartDate: 30.04.2020          3. EndDate: 30.04.2020</t>
+  </si>
+  <si>
+    <t>The Holiday Request is updated.</t>
+  </si>
+  <si>
+    <t>Delete Holiday Request - Pending status</t>
+  </si>
+  <si>
+    <t>1. Press Delete Button to open the Delete Page                 2.Press Delete Button to confirm Delete</t>
+  </si>
+  <si>
+    <t>The Holiday Request is deleted.</t>
+  </si>
+  <si>
+    <t>Holiday Request Entity for My Holidays Page</t>
+  </si>
+  <si>
+    <t>Verify if the folowing field appear in DB: StartDate, EndDate,Days,Type,Status,ModifiedOn,Approved and  EmployeeID</t>
+  </si>
+  <si>
+    <t>TC 028</t>
+  </si>
+  <si>
+    <t>My Holiday Table Format</t>
+  </si>
+  <si>
+    <t>Check if the format of Holiday Request has a table form and the following columns (in order): 
+Start Date, End Date, Days, Type, Status,Modified on, Approved</t>
+  </si>
+  <si>
+    <t>TC 030</t>
+  </si>
+  <si>
+    <t>TC 031</t>
+  </si>
+  <si>
+    <t>TC 032</t>
+  </si>
+  <si>
+    <t>TC 033</t>
+  </si>
+  <si>
+    <t>1. Enter on Register link as a new user                                      2. Press Register Button</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Manuela Porfire</t>
+  </si>
+  <si>
+    <t>18.03.2020</t>
+  </si>
+  <si>
+    <t>Site is loading and the Login Page appear. When you clik on My Holiday Link the page refresh but remain on Login Page -the access is rejected.</t>
+  </si>
+  <si>
+    <t>The request is send and the message "Please check your email to reset your password." will display under title of the page.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The error message </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"The value '20202-06-03' is not valid for Start Date."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is display under field.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The value '20202-06-03' is not valid for End Date."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is display under field.</t>
+    </r>
+  </si>
+  <si>
+    <t>Create Holiday with invalid year on EndDate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                Random data                                         1. Ana Maria Bob                       2. Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>anamaria1@bt.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                         3. Password: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AnaMaria111?                            4. Confirm:AnaMaria111?</t>
+    </r>
+  </si>
+  <si>
+    <t>19.03.2020</t>
+  </si>
+  <si>
+    <t>An error message is display "The Email field is not a valid e-mail address."</t>
+  </si>
+  <si>
+    <t>An error message was display "The Password must be at least 6 and at max 100 characters long.".</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>An error message display under each field and above fields:                                                                              "The Full Name field is required.
+The Email field is required.
+The Password field is required."</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">123 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                             2. Password: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AnaMaria111?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Email incorrect                        2. Password correct </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>anamaria1@bt.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                    2. Password:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">123 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                             2. Password: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Email correct                        2. Password incorrect                      3. Press Login Button</t>
+  </si>
+  <si>
+    <t>1. Email incorrect                        2. Password incorrect                      3. Press Login Button</t>
+  </si>
+  <si>
+    <t>Not register email address in email field for forgot password page</t>
+  </si>
+  <si>
+    <t>The error message "The value '20202-06-03' is not valid for Start Date." is display under field.</t>
+  </si>
+  <si>
+    <t>Forgot password -email send</t>
+  </si>
+  <si>
+    <t>TC 001 and TC010</t>
+  </si>
+  <si>
+    <t>1. Press the Forgot Password link                              2. Enter a valid email address                                            3. Press Submit Button</t>
+  </si>
+  <si>
+    <t>2. Email: manuelaporfire@gmail.com</t>
+  </si>
+  <si>
+    <t>TC 029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. StartDate: 01.06.2020             3. EndDate: 03.06.20202                4. Type: Medical       </t>
+  </si>
+  <si>
+    <t>The error message "The value '20202-06-03' is not valid for End Date." was display under the field EndDate.</t>
+  </si>
+  <si>
+    <t>The behaviour of Back to List Button on Create Page</t>
+  </si>
+  <si>
+    <t>The behaviour of Modified On Column after edit a holiday request</t>
+  </si>
+  <si>
+    <t>The behaviour of Back to List Button on Edit Page</t>
+  </si>
+  <si>
+    <t>1. Press Edit Button                         2. Press Back to List Button</t>
+  </si>
+  <si>
+    <t>2. StartDate: 04/06/2020          3. EndDate: 04/10/2020</t>
+  </si>
+  <si>
+    <t>Default Holiday Request Days</t>
+  </si>
+  <si>
+    <t>TC 001,TC 010 and TC 021</t>
+  </si>
+  <si>
+    <t>Enter in your account in My Holiday Page, the Current Year Holidays has to be by default 21 days.</t>
+  </si>
+  <si>
+    <t>The Current Year Holidays are by default 21 days.</t>
+  </si>
+  <si>
+    <t>23.03.2020</t>
+  </si>
+  <si>
+    <t>The error message "The value '' is invalid." was display under every field.</t>
+  </si>
+  <si>
+    <t>TC 025</t>
+  </si>
+  <si>
+    <t>TC 026`</t>
+  </si>
+  <si>
+    <t>End Date less that Start Date</t>
+  </si>
+  <si>
+    <t>1. StartDate: 01.06.2020             2.EndDate: 20.05.2020                    3. Type: Legal</t>
+  </si>
+  <si>
+    <t>The error message "End Date must be greater than Start Date" was display above  fields.</t>
+  </si>
+  <si>
+    <t>The behaviour of CreateHoliday Page if you enter a date that already exist</t>
+  </si>
+  <si>
+    <t>1. Press Create Button                       2. Choose a Start Date that already exist             3.Choose a End Date  that already exist                             4. Choose Type                                 5. Press Create Button</t>
+  </si>
+  <si>
+    <t>2. 06.02.2020                                             3. 06.02.2020                                         3. Type: Medical</t>
+  </si>
+  <si>
+    <t>Go Back from Delete Page</t>
+  </si>
+  <si>
+    <t>1. Press Delete Button to open the Delete Page                 2.Press  Back to List Button</t>
+  </si>
+  <si>
+    <t>24.03.2020</t>
+  </si>
+  <si>
+    <t>Total Number of Days</t>
+  </si>
+  <si>
+    <t>Verifiy the number of Current Year Holidays(by default must be 21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Days Left </t>
+  </si>
+  <si>
+    <t>1. Enter in your account                2. You don't have Holiday Request register for this year                                                                    3. Verify the number Holidays Left</t>
+  </si>
+  <si>
+    <t>The number of Holidays Left has to be 21 if you don't have registered any Holiday Request for current year.</t>
+  </si>
+  <si>
+    <t>1. Click on "Hello, FullName!"                                         2.Change FullName                   3. Click on Save Button</t>
+  </si>
+  <si>
+    <t>2. FullName: Random</t>
+  </si>
+  <si>
+    <t>Manage Profile -FullName</t>
+  </si>
+  <si>
+    <t>Manage Profile -UserName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on "Hello, FullName!"                                         2.Click on field  UserName                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Password Current Password correct </t>
+  </si>
+  <si>
+    <t>1. Click on "Hello, FullName!"                                                           2. Click on Password link          3. Enter current password       4.Enter new password                       5.Enter confirm password                 6. Press UpdatePassword Button</t>
+  </si>
+  <si>
+    <t>3. Password: AnaMaria1234?                                         4. NewPassword: Ana1234?     5.Confirm: Ana1234?</t>
+  </si>
+  <si>
+    <t>The password is updated and the message "Your password has been changed." is display.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Password Current Password Incorrect </t>
+  </si>
+  <si>
+    <t>1. Click on "Hello, FullName!"     on AnaMaria account                                                 2. Click on Password link          3. Enter current password incorrect                          4.Enter new password                       5.Enter confirm password                 6. Press UpdatePassword Button</t>
+  </si>
+  <si>
+    <t>Manage Password Incorrect New Password format</t>
+  </si>
+  <si>
+    <t>1. Click on "Hello, FullName!"     on AnaMaria account                                                 2. Click on Password link          3. Enter correct Current Password                           4.Enter incorrect new password                       5.Enter confirm password                 6. Press UpdatePassword Button</t>
+  </si>
+  <si>
+    <t>3. Password: AnaMaria1234?                                         4. NewPassword: Ana     5.Confirm: Ana</t>
+  </si>
+  <si>
+    <t>Manage Password Incorrect Confirm Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on "Hello, FullName!"     on AnaMaria account                                                 2. Click on Password link          3. Enter correct Current Password                           4.Enter correct new password                       5.Enter incorrect confirm password                                    </t>
+  </si>
+  <si>
+    <t>3. Password: 12345?Aa                                              4. NewPassword: Ana1234?                                                           5. ConfirmPassword: Ana1234?</t>
+  </si>
+  <si>
+    <t>3. Password: AnaMaria1234?                                         4. NewPassword: Ana1234?                                                     5.Confirm: Ana1324?</t>
+  </si>
+  <si>
+    <t>Manage Personal Data Link Download</t>
+  </si>
+  <si>
+    <t>TC  001,TC 010 and TC021</t>
+  </si>
+  <si>
+    <t>1. Clidk on "Hello, FullName!"                                                        2. Click on Personal Data link                                                                  3. Click on Download Button</t>
+  </si>
+  <si>
+    <t>Manage Personal Data Delete Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on Register Link                        2. Enter Full Name                                      3. Enter Email Address                 4. Enter Password                                    5. Confirm Password                           6. Click on Register Button               7. Click on "Hello, Full Name!"                                                               8. Click on Personal Data link                                                                     9. Click on Delete Button                 </t>
+  </si>
+  <si>
+    <t>2. FullName:   Alexandru                     3. Email: alexandru(random)@bt.com                                                                        4. Password:Alex?12(random)                                                                5. Confirm Password=Password</t>
+  </si>
+  <si>
+    <t>Sort MyHoliday Table by StartDate</t>
+  </si>
+  <si>
+    <t>Click on StartDate Column Name</t>
+  </si>
+  <si>
+    <t>Sort MyHoliday Table by EndDate</t>
+  </si>
+  <si>
+    <t>Click on EndDate Column Name</t>
+  </si>
+  <si>
+    <t>Sort MyHoliday Table by Days</t>
+  </si>
+  <si>
+    <t>Click on Days Column Name</t>
+  </si>
+  <si>
+    <t>Sort MyHoliday Table by Type</t>
+  </si>
+  <si>
+    <t>Click on Type Column Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC 001, TC 010 </t>
+  </si>
+  <si>
+    <t>TC 001, TC 010</t>
+  </si>
+  <si>
+    <t>Sort MyHoliday Table by ModifiedOn</t>
+  </si>
+  <si>
+    <t>TC 001,TC010</t>
+  </si>
+  <si>
+    <t>Click on Modified On Column</t>
+  </si>
+  <si>
+    <t>25.03.2020</t>
+  </si>
+  <si>
+    <t>Smart Search Field My Holiday Page</t>
+  </si>
+  <si>
+    <t>TC 001,TC 010</t>
+  </si>
+  <si>
+    <t>1.Click on Smart Search field                                                                   2. Write</t>
+  </si>
+  <si>
+    <t>2. Write: Training</t>
+  </si>
+  <si>
+    <t>The Holidays Request that has type Training should appear.</t>
+  </si>
+  <si>
+    <t>Password users:</t>
+  </si>
+  <si>
+    <t>AnaMaria: AnaMaria1234?</t>
+  </si>
+  <si>
+    <t>DianaSonia: DianaSonia1234?</t>
+  </si>
+  <si>
+    <t>Smart Search Field All Holidays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acces admin account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter an user admin account                                                    2. User has acces to all pages: My Holiday, All Holiday and Employee                              3. Enter Admin email                                              4. Enter Admin password                           5. Press Login Button                                                                     </t>
+  </si>
+  <si>
+    <t>TC 034</t>
+  </si>
+  <si>
+    <t>TC 035</t>
+  </si>
+  <si>
+    <t>TC 036</t>
+  </si>
+  <si>
+    <t>TC 037</t>
+  </si>
+  <si>
+    <t>TC 038</t>
+  </si>
+  <si>
+    <t>TC 039</t>
+  </si>
+  <si>
+    <t>TC 040</t>
+  </si>
+  <si>
+    <t>TC 041</t>
+  </si>
+  <si>
+    <t>TC 042</t>
+  </si>
+  <si>
+    <t>TC 043</t>
+  </si>
+  <si>
+    <t>TC 044</t>
+  </si>
+  <si>
+    <t>TC 045</t>
+  </si>
+  <si>
+    <t>TC 046</t>
+  </si>
+  <si>
+    <t>TC 047</t>
+  </si>
+  <si>
+    <t>TC 048</t>
+  </si>
+  <si>
+    <t>TC 049</t>
+  </si>
+  <si>
+    <t>TC 051</t>
+  </si>
+  <si>
+    <t>TC 050</t>
+  </si>
+  <si>
+    <t>TC 052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on All Holidays link                     2. Click on Smart Search                       3. Write something                       </t>
+  </si>
+  <si>
+    <t>3. Write: Paid</t>
+  </si>
+  <si>
+    <t>The admin will see all the holidays (of employees and her/his)  that had type Paid.</t>
+  </si>
+  <si>
+    <t>The All Holiday Page Tabel</t>
+  </si>
+  <si>
+    <t>Enter in admin account and verify the format of the All Holiday Table and if the Edit button is visible/exist</t>
+  </si>
+  <si>
+    <t>Edit  Holiday Request as Admin</t>
+  </si>
+  <si>
+    <t>1. Enter in admin account                2. Press Edit Button                            3. Press click in the following field: StartDate, EndDate, Days, Type</t>
+  </si>
+  <si>
+    <t>The fields StartDate, EndDate, Days and Type don't allowed focus (user can't modified them).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Holiday Page </t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Holiday Page </t>
+  </si>
+  <si>
+    <t>Testcase</t>
+  </si>
+  <si>
+    <t>The My Holiday Page of an admin</t>
+  </si>
+  <si>
+    <t>Verify if user is admin, on My Holidays Page has to appear just the admin Holidays Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Button on All Holiday Page, status Pending </t>
+  </si>
+  <si>
+    <t>1. Press All Holidays link                             2. Press Edit Button on one user                                                                 3. Choose Status Accepted           4. Press Save Button</t>
+  </si>
+  <si>
+    <t>After admin user press Save Button, is redirected to All Holiday Page and the Status of Request is Accepted.</t>
+  </si>
+  <si>
+    <t>Edit Button on All Holiday Page, status Accepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press All Holidays link                             2. Press Edit Button on one user  that has status Acceped                                                      </t>
+  </si>
+  <si>
+    <t>The admin user can't Edit Holiday Request status.</t>
+  </si>
+  <si>
+    <t>The admin user can Edit Holiday Request status.</t>
+  </si>
+  <si>
+    <t>The Behaviour of Back to List Button on Edit Page</t>
+  </si>
+  <si>
+    <t>1. Press Edit Button                                           2. Press Back to List Button</t>
+  </si>
+  <si>
+    <t>User is redirected to All Holidays Page.</t>
+  </si>
+  <si>
+    <t>Edit Button on All Holiday Page, status Declined</t>
+  </si>
+  <si>
+    <t>1. Press Edit Button                                           2. Chosee status Decliend                3. Press Save Button</t>
+  </si>
+  <si>
+    <t>The status of HolidayRequest is decliend.</t>
+  </si>
+  <si>
+    <t>26.03.2020</t>
+  </si>
+  <si>
+    <t>Sort table by StartDate</t>
+  </si>
+  <si>
+    <t>1. Press AllHoliday link                      2. Press StartDate</t>
+  </si>
+  <si>
+    <t>1. Press AllHoliday link                      2. Press EndDate</t>
+  </si>
+  <si>
+    <t>Sort table by EndDate</t>
+  </si>
+  <si>
+    <t>Sort table by Days</t>
+  </si>
+  <si>
+    <t>1. Press AllHoliday link                               2. Press Days</t>
+  </si>
+  <si>
+    <t>Sort table by Status</t>
+  </si>
+  <si>
+    <t>1. Press AllHoliday link                     2. Press Status</t>
+  </si>
+  <si>
+    <t>Sort table by Type</t>
+  </si>
+  <si>
+    <t>1. Press AllHoliday link                      2. Press Type</t>
+  </si>
+  <si>
+    <t>Sort table by ModifiedOn</t>
+  </si>
+  <si>
+    <t>1. Press AllHoliday link                      2. Press ModifiedOn</t>
+  </si>
+  <si>
+    <t>Sort table by Employee</t>
+  </si>
+  <si>
+    <t>1. Press AllHoliday link                          2. Press Employee</t>
+  </si>
+  <si>
+    <t>Employee Page</t>
+  </si>
+  <si>
+    <t>Verify if the following field appear on table, in Employee Page: Full Name, Department, Current Year Holidays an Is Admin?</t>
+  </si>
+  <si>
+    <t>1. Click on Employee Page      2. Click on Edit Button                    3. Enter a value less than 21                                                       4. Enter a value in Department field                               5. Click Save Button</t>
+  </si>
+  <si>
+    <t>The number of days of employee was changed in a value &lt; 21, that the admin entered.</t>
+  </si>
+  <si>
+    <t>1. Click on Employee Page      2. Click on Edit Button                    3. Enter a value bigger than 21                                                       4. Enter a value in Department field                               5. Click Save Button</t>
+  </si>
+  <si>
+    <t>3. Value: 19                                                                  4. Department: HR</t>
+  </si>
+  <si>
+    <t>The Current Year Holidays was changed to the value that the admin entered, &gt; 21.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. User: manuelaporfire@gmail.com                                                             Password: VY!N3vt9usCSAF5</t>
+  </si>
+  <si>
+    <t>TC 001 [AllHolidaysPage]</t>
+  </si>
+  <si>
+    <t>The behaviour of Current Year Holiday  for value &gt; 21</t>
+  </si>
+  <si>
+    <t>The behaviour of Current Year Holiday  for value &lt; 21</t>
+  </si>
+  <si>
+    <t>Table fields</t>
+  </si>
+  <si>
+    <t>The behaviour of Current Year Holiday with empty department field</t>
+  </si>
+  <si>
+    <t>1. Click on Employee Page               2. Click on EditButton                           3. Click Save Button</t>
+  </si>
+  <si>
+    <t>An error message will display under field: " The Department Field is required".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The behaviour of Back to List Button on Current Year Holiday </t>
+  </si>
+  <si>
+    <t>The Behaviour of IsAdmin checkbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on Employee Page       2. Click on EditButton                                    3. Click on BacktoList Button                         </t>
+  </si>
+  <si>
+    <t>1. Click on Employee Page                        2. Click on EditButton                               3. Click on checkbox IsAdmin?                                                          4. Press Save Button</t>
+  </si>
+  <si>
+    <t>The checkbox IsAdmin? is checked and the user is now an Admin.</t>
+  </si>
+  <si>
+    <t>The Behaviour of IsAdmin checkbox if admin uncheck the setting</t>
+  </si>
+  <si>
+    <t>1. Click on Employee Page        2. Click on EditButton for a user that is Admin                                  3. Click on checkbox to uncheck the setting for admin                                                           4. Press Save Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Behaviour of SmartSearch </t>
+  </si>
+  <si>
+    <t>TC 001 and TC 001 [AllHolidaysPage]</t>
+  </si>
+  <si>
+    <t>1. Click on SmartSearch             2. Enter a value</t>
+  </si>
+  <si>
+    <t>2. Value: Manuela</t>
+  </si>
+  <si>
+    <t>On tabel appear the information that you search, information about Manuela's Holiday.</t>
+  </si>
+  <si>
+    <t>Sort information by FullName</t>
+  </si>
+  <si>
+    <t>Click on FullName column name</t>
+  </si>
+  <si>
+    <t>The checkbox IsAdmin? is unchecked and the user is no more an Admin.</t>
+  </si>
+  <si>
+    <t>The information will be sorted ascendent or descendent by FullName.</t>
+  </si>
+  <si>
+    <t>The user is redirected to Employee Page.</t>
+  </si>
+  <si>
+    <t>The fields appear on Employee Page.</t>
+  </si>
+  <si>
+    <t>Sort information by Department</t>
+  </si>
+  <si>
+    <t>Click on Department column name</t>
+  </si>
+  <si>
+    <t>The information will be sorted ascendent or descendent by Department.</t>
+  </si>
+  <si>
+    <t>Sort information by CurrentYearHoliday</t>
+  </si>
+  <si>
+    <t>Click on CurrentYearHoliday column name</t>
+  </si>
+  <si>
+    <t>The information will be sorted ascenent or descendent by CurrentYearHoliday number.</t>
+  </si>
+  <si>
+    <t>The behavior of sort information by IsAdmin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on IsAdmin? column name </t>
+  </si>
+  <si>
+    <t>The information can't be sorted by IsAdmin? .</t>
+  </si>
+  <si>
+    <t>Site is loading without problems and the Login Page appear.</t>
+  </si>
+  <si>
+    <t>User is registered.</t>
+  </si>
+  <si>
+    <t>An error message was display "The password and confirmation password do not match." under field and above fields.</t>
+  </si>
+  <si>
+    <t>The user can Register.</t>
+  </si>
+  <si>
+    <t>User is logged in.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The message </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"The Email field is not a valid e-mail address."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will display under fields.</t>
+    </r>
+  </si>
+  <si>
+    <t>The message "The Email field is not a valid e-mail address." was display.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The message </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Invalid login attempt."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will display above fields.</t>
+    </r>
+  </si>
+  <si>
+    <t>The message "Invalid login attempt." was display above fields.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The message </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"The Email field is not a valid e-mail address."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will display under email field and above fields.</t>
+    </r>
+  </si>
+  <si>
+    <t>After the user enter in his/her account, the user Full Name appears on the top right on Page. "Hello, Full Name!".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An error message will display under every field and above fields:         </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"The Email field is required.
+The Password field is required."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>The error message is display under every field and above fields:         "The Email field is required.
+The Password field is required.".</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">The error message will display under  field and above field:  </t>
     </r>
@@ -463,15 +1421,19 @@
       </rPr>
       <t xml:space="preserve"> "The Email field is required."</t>
     </r>
-  </si>
-  <si>
-    <t>Incorrect email on forgot password field</t>
-  </si>
-  <si>
-    <t>1. Open application                   2. Click on link Forgot your password                                      3. Incorrect email                                                                            4. Click Submit Button</t>
-  </si>
-  <si>
-    <t>3. Email: 111</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>The error message will display under  field and above field:   "The Email field is required." A screenshot is made.</t>
   </si>
   <si>
     <r>
@@ -488,12 +1450,19 @@
       </rPr>
       <t>"The Email field is not a valid e-mail address."</t>
     </r>
-  </si>
-  <si>
-    <t>1. Open application                   2. Click on link Forgot your password                                      3. Not register email                                                                            4. Click Submit Button</t>
-  </si>
-  <si>
-    <t>3. Email: dana@bt.com</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>The error message will display under  field: "The Email field is not a valid e-mail address.".</t>
   </si>
   <si>
     <r>
@@ -510,54 +1479,28 @@
       </rPr>
       <t>"The email address is not a valid e-mail address."</t>
     </r>
-  </si>
-  <si>
-    <t>Remember me checkbutton</t>
-  </si>
-  <si>
-    <t>Click on Remember me checkbutton</t>
-  </si>
-  <si>
-    <t>The checkbutton is checked.</t>
-  </si>
-  <si>
-    <t>TC 023</t>
-  </si>
-  <si>
-    <t>TC 024</t>
-  </si>
-  <si>
-    <t>TC 027</t>
-  </si>
-  <si>
-    <t>Create Holiday</t>
-  </si>
-  <si>
-    <t>TC 010</t>
-  </si>
-  <si>
-    <t>TC 001 and TC 010</t>
-  </si>
-  <si>
-    <t>1. Press the Create Button     2. Choose a Start Date               3. Choose a End Date                   4. Choose Type                            5. Press Create Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. StartDate: 10.03.2020              3. EndDate: 20.03.2020              4. Type: Paid                    </t>
-  </si>
-  <si>
-    <t>1. Press Create Button                       2. Choose a Start Date                 3.Choose a End Date                   4. Choose Type                                 5. Press Create Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. StartDate: 03.06.20202             3. EndDate: 01.06.2020              4. Type: Training              </t>
-  </si>
-  <si>
-    <t>Create Holiday with invalid year on StartDate</t>
-  </si>
-  <si>
-    <t>Create Holiday with empty field</t>
-  </si>
-  <si>
-    <t>1. Press Create Button -Holiday                                                    2. Press Create Button</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>The request was sent, but the e-mail is not register.</t>
+  </si>
+  <si>
+    <t>The Holiday Request is created, with 8 days.</t>
+  </si>
+  <si>
+    <t>User receive a e-mail to reset the password.</t>
+  </si>
+  <si>
+    <t>Will be implemented.</t>
   </si>
   <si>
     <r>
@@ -574,117 +1517,6 @@
       </rPr>
       <t>"The value '' is invalid."</t>
     </r>
-  </si>
-  <si>
-    <t>1. Press Create Button - Holiday                                              2. Click on Back to List Button</t>
-  </si>
-  <si>
-    <t>The user is redirected to My Holiday page</t>
-  </si>
-  <si>
-    <t>Edit Holiday Request</t>
-  </si>
-  <si>
-    <t>TC 001, TC 010 and TC 021</t>
-  </si>
-  <si>
-    <t>1. Press Edit Button                         2. Change the StartDate            3. Change the End Date             4. Press Save Button</t>
-  </si>
-  <si>
-    <t>2. StartDate: 30.04.2020          3. EndDate: 30.04.2020</t>
-  </si>
-  <si>
-    <t>The Holiday Request is updated.</t>
-  </si>
-  <si>
-    <t>Delete Holiday Request - Pending status</t>
-  </si>
-  <si>
-    <t>1. Press Delete Button to open the Delete Page                 2.Press Delete Button to confirm Delete</t>
-  </si>
-  <si>
-    <t>The Holiday Request is deleted.</t>
-  </si>
-  <si>
-    <t>Holiday Request Entity for My Holidays Page</t>
-  </si>
-  <si>
-    <t>Verify if the folowing field appear in DB: StartDate, EndDate,Days,Type,Status,ModifiedOn,Approved and  EmployeeID</t>
-  </si>
-  <si>
-    <t>The fields appear in HolidayRequestTable in DB</t>
-  </si>
-  <si>
-    <t>TC 028</t>
-  </si>
-  <si>
-    <t>My Holiday Table Format</t>
-  </si>
-  <si>
-    <t>Check if the format of Holiday Request has a table form and the following columns (in order): 
-Start Date, End Date, Days, Type, Status,Modified on, Approved</t>
-  </si>
-  <si>
-    <t>The format of Holiday Request on user is a table form with columns (in order): 
-Start Date, End Date, Days, Type, Status,Modified on, Approved</t>
-  </si>
-  <si>
-    <t>TC 030</t>
-  </si>
-  <si>
-    <t>TC 031</t>
-  </si>
-  <si>
-    <t>TC 032</t>
-  </si>
-  <si>
-    <t>TC 033</t>
-  </si>
-  <si>
-    <t>User is registered</t>
-  </si>
-  <si>
-    <t>1. Enter on Register link as a new user                                      2. Press Register Button</t>
-  </si>
-  <si>
-    <t>User is logged in</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Manuela Porfire</t>
-  </si>
-  <si>
-    <t>18.03.2020</t>
-  </si>
-  <si>
-    <t>Site is loading and the Login Page appear. When you clik on All Holiday Link the page refresh but remain on Login Page -the access is rejected.</t>
-  </si>
-  <si>
-    <t>Site is loading and the Login Page appear. When you clik on My Holiday Link the page refresh but remain on Login Page -the access is rejected.</t>
-  </si>
-  <si>
-    <t>The request is send and the message "Please check your email to reset your password." will display under title of the page.</t>
-  </si>
-  <si>
-    <t>The error message will display under  field and above field:   "The Email field is required." A screenshot is made</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The error message </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"The value '20202-06-03' is not valid for Start Date."</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -693,857 +1525,153 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> is display under field.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The error message "</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The value '20202-06-03' is not valid for End Date."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is display under field.</t>
-    </r>
-  </si>
-  <si>
-    <t>Create Holiday with invalid year on EndDate</t>
-  </si>
-  <si>
-    <t>The error message will display under  field: "The Email field is not a valid e-mail address."</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                Random data                                         1. Ana Maria Bob                       2. Email: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>anamaria1@bt.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                         3. Password: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AnaMaria111?                            4. Confirm:AnaMaria111?</t>
-    </r>
-  </si>
-  <si>
-    <t>19.03.2020</t>
-  </si>
-  <si>
-    <t>An error message is display "The Email field is not a valid e-mail address."</t>
-  </si>
-  <si>
-    <t>An error message was display "The Password must be at least 6 and at max 100 characters long.".</t>
-  </si>
-  <si>
-    <t>An error message was display "The password and confirmation password do not match." under field and above fields</t>
-  </si>
-  <si>
-    <t>The user can Register</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>An error message display under each field and above fields:                                                                              "The Full Name field is required.
-The Email field is required.
-The Password field is required."</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Email: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">123 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                             2. Password: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AnaMaria111?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Email incorrect                        2. Password correct </t>
-  </si>
-  <si>
-    <t>The message "The Email field is not a valid e-mail address." was display</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Email: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>anamaria1@bt.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                    2. Password:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> M</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Email: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">123 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                             2. Password: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Email correct                        2. Password incorrect                      3. Press Login Button</t>
-  </si>
-  <si>
-    <t>The message "Invalid login attempt." was display above fields</t>
-  </si>
-  <si>
-    <t>1. Email incorrect                        2. Password incorrect                      3. Press Login Button</t>
-  </si>
-  <si>
-    <t>After the user enter in his/her account, the user Full Name appears on the top right on Page. "Hello, Full Name!"</t>
-  </si>
-  <si>
-    <t>The error message is display under every field and above fields:         "The Email field is required.
-The Password field is required."</t>
-  </si>
-  <si>
-    <t>Not register email address in email field for forgot password page</t>
-  </si>
-  <si>
-    <t>The request was sent, but the e-mail is not register</t>
-  </si>
-  <si>
-    <t>The error message "The value '20202-06-03' is not valid for Start Date." is display under field.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Holiday Request is created, with 8 days </t>
-  </si>
-  <si>
-    <t>Forgot password -email send</t>
-  </si>
-  <si>
-    <t>TC 001 and TC010</t>
-  </si>
-  <si>
-    <t>1. Press the Forgot Password link                              2. Enter a valid email address                                            3. Press Submit Button</t>
-  </si>
-  <si>
-    <t>2. Email: manuelaporfire@gmail.com</t>
-  </si>
-  <si>
-    <t>User receive a e-mail to reset the password</t>
-  </si>
-  <si>
-    <t>TC 029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. StartDate: 01.06.2020             3. EndDate: 03.06.20202                4. Type: Medical       </t>
-  </si>
-  <si>
-    <t>The error message "The value '20202-06-03' is not valid for End Date." was display under the field EndDate.</t>
-  </si>
-  <si>
-    <t>The behaviour of Back to List Button on Create Page</t>
-  </si>
-  <si>
-    <t>The user is redirected to My Holiday Page and no Holiday Request is created</t>
-  </si>
-  <si>
-    <t>The behaviour of Modified On Column after edit a holiday request</t>
-  </si>
-  <si>
-    <t>The Modified On Column change the Current Date Time</t>
-  </si>
-  <si>
-    <t>The behaviour of Back to List Button on Edit Page</t>
-  </si>
-  <si>
-    <t>1. Press Edit Button                         2. Press Back to List Button</t>
-  </si>
-  <si>
-    <t>2. StartDate: 04/06/2020          3. EndDate: 04/10/2020</t>
-  </si>
-  <si>
-    <t>The Holiday Request is updated and site return too My Holiday Page</t>
-  </si>
-  <si>
-    <t>Default Holiday Request Days</t>
-  </si>
-  <si>
-    <t>TC 001,TC 010 and TC 021</t>
-  </si>
-  <si>
-    <t>Enter in your account in My Holiday Page, the Current Year Holidays has to be by default 21 days.</t>
-  </si>
-  <si>
-    <t>The Current Year Holidays are by default 21 days.</t>
-  </si>
-  <si>
-    <t>Will be implemented</t>
-  </si>
-  <si>
-    <t>23.03.2020</t>
-  </si>
-  <si>
-    <t>The error message "The value '' is invalid." was display under every field.</t>
-  </si>
-  <si>
-    <t>TC 025</t>
-  </si>
-  <si>
-    <t>TC 026`</t>
-  </si>
-  <si>
-    <t>End Date less that Start Date</t>
-  </si>
-  <si>
-    <t>An error message is display above  fields  "End Date must be greater than Start Date"</t>
-  </si>
-  <si>
-    <t>1. StartDate: 01.06.2020             2.EndDate: 20.05.2020                    3. Type: Legal</t>
-  </si>
-  <si>
-    <t>The error message "End Date must be greater than Start Date" was display above  fields.</t>
-  </si>
-  <si>
-    <t>The behaviour of CreateHoliday Page if you enter a date that already exist</t>
-  </si>
-  <si>
-    <t>1. Press Create Button                       2. Choose a Start Date that already exist             3.Choose a End Date  that already exist                             4. Choose Type                                 5. Press Create Button</t>
-  </si>
-  <si>
-    <t>2. 06.02.2020                                             3. 06.02.2020                                         3. Type: Medical</t>
-  </si>
-  <si>
-    <t>An error message is display above fields "There are holidays between 02/06/2020 and 02/06/2020. Please re-enter"</t>
-  </si>
-  <si>
-    <t>User is redirected to My Holiday Page</t>
-  </si>
-  <si>
-    <t>Holiday Request deleted</t>
-  </si>
-  <si>
-    <t>Go Back from Delete Page</t>
-  </si>
-  <si>
-    <t>1. Press Delete Button to open the Delete Page                 2.Press  Back to List Button</t>
-  </si>
-  <si>
-    <t>24.03.2020</t>
-  </si>
-  <si>
-    <t>Total Number of Days</t>
-  </si>
-  <si>
-    <t>Verifiy the number of Current Year Holidays(by default must be 21)</t>
-  </si>
-  <si>
-    <t>The number of Current Year Holidays is 21</t>
-  </si>
-  <si>
-    <t>The number of Current Year Holidays is 21 by default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Days Left </t>
-  </si>
-  <si>
-    <t>1. Enter in your account                2. You don't have Holiday Request register for this year                                                                    3. Verify the number Holidays Left</t>
-  </si>
-  <si>
-    <t>The number of Holidays Left has to be 21 if you don't have registered any Holiday Request for current year.</t>
-  </si>
-  <si>
-    <t>1. Click on "Hello, FullName!"                                         2.Change FullName                   3. Click on Save Button</t>
-  </si>
-  <si>
-    <t>2. FullName: Random</t>
-  </si>
-  <si>
-    <t>Manage Profile -FullName</t>
-  </si>
-  <si>
-    <t>Manage Profile -UserName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click on "Hello, FullName!"                                         2.Click on field  UserName                   </t>
-  </si>
-  <si>
-    <t>The UserName field doesn't allowed focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The FullName is changed. In the right corner of page appear you new FullName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manage Password Current Password correct </t>
-  </si>
-  <si>
-    <t>1. Click on "Hello, FullName!"                                                           2. Click on Password link          3. Enter current password       4.Enter new password                       5.Enter confirm password                 6. Press UpdatePassword Button</t>
-  </si>
-  <si>
-    <t>3. Password: AnaMaria1234?                                         4. NewPassword: Ana1234?     5.Confirm: Ana1234?</t>
-  </si>
-  <si>
-    <t>The password is updated and the message "Your password has been changed." is display.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manage Password Current Password Incorrect </t>
-  </si>
-  <si>
-    <t>1. Click on "Hello, FullName!"     on AnaMaria account                                                 2. Click on Password link          3. Enter current password incorrect                          4.Enter new password                       5.Enter confirm password                 6. Press UpdatePassword Button</t>
-  </si>
-  <si>
-    <t>After user press Update Password Button an error message appear  above fields "Incorrect password."</t>
-  </si>
-  <si>
-    <t>The error message is display above fields "Incorrect password."</t>
-  </si>
-  <si>
-    <t>Manage Password Incorrect New Password format</t>
-  </si>
-  <si>
-    <t>1. Click on "Hello, FullName!"     on AnaMaria account                                                 2. Click on Password link          3. Enter correct Current Password                           4.Enter incorrect new password                       5.Enter confirm password                 6. Press UpdatePassword Button</t>
-  </si>
-  <si>
-    <t>3. Password: AnaMaria1234?                                         4. NewPassword: Ana     5.Confirm: Ana</t>
-  </si>
-  <si>
-    <t>The error message is display above fields and under New Password field  "The New password must be at least 6 and at max 100 characters long."</t>
-  </si>
-  <si>
-    <t>Manage Password Incorrect Confirm Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click on "Hello, FullName!"     on AnaMaria account                                                 2. Click on Password link          3. Enter correct Current Password                           4.Enter correct new password                       5.Enter incorrect confirm password                                    </t>
-  </si>
-  <si>
-    <t>3. Password: 12345?Aa                                              4. NewPassword: Ana1234?                                                           5. ConfirmPassword: Ana1234?</t>
-  </si>
-  <si>
-    <t>3. Password: AnaMaria1234?                                         4. NewPassword: Ana1234?                                                     5.Confirm: Ana1324?</t>
-  </si>
-  <si>
-    <t>The error message is display under Confirm Password field  "The new password and confirmation password do not match."</t>
-  </si>
-  <si>
-    <t>Manage Personal Data Link Download</t>
-  </si>
-  <si>
-    <t>TC  001,TC 010 and TC021</t>
-  </si>
-  <si>
-    <t>1. Clidk on "Hello, FullName!"                                                        2. Click on Personal Data link                                                                  3. Click on Download Button</t>
-  </si>
-  <si>
-    <t>The user data is download on Json format</t>
-  </si>
-  <si>
-    <t>Manage Personal Data Delete Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click on Register Link                        2. Enter Full Name                                      3. Enter Email Address                 4. Enter Password                                    5. Confirm Password                           6. Click on Register Button               7. Click on "Hello, Full Name!"                                                               8. Click on Personal Data link                                                                     9. Click on Delete Button                 </t>
-  </si>
-  <si>
-    <t>2. FullName:   Alexandru                     3. Email: alexandru(random)@bt.com                                                                        4. Password:Alex?12(random)                                                                5. Confirm Password=Password</t>
-  </si>
-  <si>
-    <t>The account is deleted permanently</t>
-  </si>
-  <si>
-    <t>Sort MyHoliday Table by StartDate</t>
-  </si>
-  <si>
-    <t>Click on StartDate Column Name</t>
-  </si>
-  <si>
-    <t>The StartDate can be sorted ascendent and descendent</t>
-  </si>
-  <si>
-    <t>Sort MyHoliday Table by EndDate</t>
-  </si>
-  <si>
-    <t>Click on EndDate Column Name</t>
-  </si>
-  <si>
-    <t>The EndDate column can be sorted ascendent and descendent</t>
-  </si>
-  <si>
-    <t>Sort MyHoliday Table by Days</t>
-  </si>
-  <si>
-    <t>Click on Days Column Name</t>
-  </si>
-  <si>
-    <t>The Days column can be sorted ascendent and descendent</t>
-  </si>
-  <si>
-    <t>Sort MyHoliday Table by Type</t>
-  </si>
-  <si>
-    <t>Click on Type Column Name</t>
-  </si>
-  <si>
-    <t>The Type column can be sorted ascendent and descendent</t>
-  </si>
-  <si>
-    <t>The Type  column can be sorted ascendent and descendent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC 001, TC 010 </t>
-  </si>
-  <si>
-    <t>TC 001, TC 010</t>
-  </si>
-  <si>
-    <t>Sort MyHoliday Table by ModifiedOn</t>
-  </si>
-  <si>
-    <t>TC 001,TC010</t>
-  </si>
-  <si>
-    <t>Click on Modified On Column</t>
-  </si>
-  <si>
-    <t>The Holiday Request is created, with 8 days</t>
-  </si>
-  <si>
-    <t>25.03.2020</t>
-  </si>
-  <si>
-    <t>Smart Search Field My Holiday Page</t>
-  </si>
-  <si>
-    <t>TC 001,TC 010</t>
-  </si>
-  <si>
-    <t>1.Click on Smart Search field                                                                   2. Write</t>
-  </si>
-  <si>
-    <t>2. Write: Training</t>
-  </si>
-  <si>
-    <t>The Holidays Request that has type Training should appear.</t>
-  </si>
-  <si>
-    <t>Password users:</t>
-  </si>
-  <si>
-    <t>AnaMaria: AnaMaria1234?</t>
-  </si>
-  <si>
-    <t>DianaSonia: DianaSonia1234?</t>
-  </si>
-  <si>
-    <t>Smart Search Field All Holidays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acces admin account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter an user admin account                                                    2. User has acces to all pages: My Holiday, All Holiday and Employee                              3. Enter Admin email                                              4. Enter Admin password                           5. Press Login Button                                                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>The admin can login is his/her account and has  acces to the following pages:                                                                   - My Holidays                                                                                 -All Holidays                                                                                            -Employees</t>
-  </si>
-  <si>
-    <t>TC 034</t>
-  </si>
-  <si>
-    <t>TC 035</t>
-  </si>
-  <si>
-    <t>TC 036</t>
-  </si>
-  <si>
-    <t>TC 037</t>
-  </si>
-  <si>
-    <t>TC 038</t>
-  </si>
-  <si>
-    <t>TC 039</t>
-  </si>
-  <si>
-    <t>TC 040</t>
-  </si>
-  <si>
-    <t>TC 041</t>
-  </si>
-  <si>
-    <t>TC 042</t>
-  </si>
-  <si>
-    <t>TC 043</t>
-  </si>
-  <si>
-    <t>TC 044</t>
-  </si>
-  <si>
-    <t>TC 045</t>
-  </si>
-  <si>
-    <t>TC 046</t>
-  </si>
-  <si>
-    <t>TC 047</t>
-  </si>
-  <si>
-    <t>TC 048</t>
-  </si>
-  <si>
-    <t>TC 049</t>
-  </si>
-  <si>
-    <t>TC 051</t>
-  </si>
-  <si>
-    <t>TC 050</t>
-  </si>
-  <si>
-    <t>TC 052</t>
-  </si>
-  <si>
-    <t>TC 053</t>
-  </si>
-  <si>
-    <t>TC 054</t>
-  </si>
-  <si>
-    <t>TC 055</t>
-  </si>
-  <si>
-    <t>TC 056</t>
-  </si>
-  <si>
-    <t>TC 057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click on All Holidays link                     2. Click on Smart Search                       3. Write something                       </t>
-  </si>
-  <si>
-    <t>3. Write: Paid</t>
-  </si>
-  <si>
-    <t>The admin will see all the holidays (of employees and her/his)  that had type Paid.</t>
-  </si>
-  <si>
-    <t>The All Holiday Page Tabel</t>
-  </si>
-  <si>
-    <t>Enter in admin account and verify the format of the All Holiday Table and if the Edit button is visible/exist</t>
-  </si>
-  <si>
-    <t>The All Holiday table contains the following columns: StartDate, EndDate, Days, Status, Type, ModifiedOn, Employee (FullName) and a Edit Button</t>
-  </si>
-  <si>
-    <t>Edit  Holiday Request as Admin</t>
-  </si>
-  <si>
-    <t>1. Enter in admin account                2. Press Edit Button                            3. Press click in the following field: StartDate, EndDate, Days, Type</t>
-  </si>
-  <si>
-    <t>The fields StartDate, EndDate, Days and Type don't allowed focus (user can't modified them).</t>
-  </si>
-  <si>
-    <t>TC 058</t>
-  </si>
-  <si>
-    <t>TC 059</t>
-  </si>
-  <si>
-    <t>TC 060</t>
-  </si>
-  <si>
-    <t>TC 061</t>
-  </si>
-  <si>
-    <t>TC 062</t>
-  </si>
-  <si>
-    <t>TC 063</t>
-  </si>
-  <si>
-    <t>TC 065</t>
-  </si>
-  <si>
-    <t>TC 064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Holiday Page </t>
-  </si>
-  <si>
-    <t>TestCase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Holiday Page </t>
-  </si>
-  <si>
-    <t>Testcase</t>
-  </si>
-  <si>
-    <t>The My Holiday Page of an admin</t>
-  </si>
-  <si>
-    <t>Verify if user is admin, on My Holidays Page has to appear just the admin Holidays Request</t>
-  </si>
-  <si>
-    <t>On admin account, on My Holiday Page appear just the user Holiday Requests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Button on All Holiday Page, status Pending </t>
-  </si>
-  <si>
-    <t>1. Press All Holidays link                             2. Press Edit Button on one user                                                                 3. Choose Status Accepted           4. Press Save Button</t>
-  </si>
-  <si>
-    <t>After admin user press Save Button, is redirected to All Holiday Page and the Status of Request is Accepted.</t>
-  </si>
-  <si>
-    <t>Edit Button on All Holiday Page, status Accepted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Press All Holidays link                             2. Press Edit Button on one user  that has status Acceped                                                      </t>
-  </si>
-  <si>
-    <t>The admin user can't Edit Holiday Request status.</t>
-  </si>
-  <si>
-    <t>The admin user can Edit Holiday Request status.</t>
-  </si>
-  <si>
-    <t>The Behaviour of Back to List Button on Edit Page</t>
-  </si>
-  <si>
-    <t>1. Press Edit Button                                           2. Press Back to List Button</t>
-  </si>
-  <si>
-    <t>User is redirected to All Holidays Page.</t>
-  </si>
-  <si>
-    <t>Edit Button on All Holiday Page, status Declined</t>
-  </si>
-  <si>
-    <t>1. Press Edit Button                                           2. Chosee status Decliend                3. Press Save Button</t>
-  </si>
-  <si>
-    <t>The status of HolidayRequest is decliend.</t>
-  </si>
-  <si>
-    <t>26.03.2020</t>
-  </si>
-  <si>
-    <t>Sort table by StartDate</t>
-  </si>
-  <si>
-    <t>1. Press AllHoliday link                      2. Press StartDate</t>
-  </si>
-  <si>
-    <t>User can sort information about StartDate ascendent or descendent</t>
-  </si>
-  <si>
-    <t>1. Press AllHoliday link                      2. Press EndDate</t>
-  </si>
-  <si>
-    <t>User can sort information about Holiday Request  EndDate ascendent or descendent</t>
-  </si>
-  <si>
-    <t>User can sort information about HolidayRequest StartDate ascendent or descendent</t>
-  </si>
-  <si>
-    <t>Sort table by EndDate</t>
-  </si>
-  <si>
-    <t>Sort table by Days</t>
-  </si>
-  <si>
-    <t>1. Press AllHoliday link                               2. Press Days</t>
-  </si>
-  <si>
-    <t>The user can sort information by number of Days</t>
-  </si>
-  <si>
-    <t>User can sort information by number of Days</t>
-  </si>
-  <si>
-    <t>TC 066</t>
-  </si>
-  <si>
-    <t>TC 067</t>
-  </si>
-  <si>
-    <t>TC 068</t>
-  </si>
-  <si>
-    <t>Sort table by Status</t>
-  </si>
-  <si>
-    <t>1. Press AllHoliday link                     2. Press Status</t>
-  </si>
-  <si>
-    <t>The user can sort information by Status</t>
-  </si>
-  <si>
-    <t>User can sort information by Status</t>
-  </si>
-  <si>
-    <t>Sort table by Type</t>
-  </si>
-  <si>
-    <t>1. Press AllHoliday link                      2. Press Type</t>
-  </si>
-  <si>
-    <t>The user can sort information by Type</t>
-  </si>
-  <si>
-    <t>The information can be sorted by Type</t>
-  </si>
-  <si>
-    <t>Sort table by ModifiedOn</t>
-  </si>
-  <si>
-    <t>1. Press AllHoliday link                      2. Press ModifiedOn</t>
-  </si>
-  <si>
-    <t>The user can sort information by Modified On date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The infromation cand be sorted by ModifiedOn </t>
-  </si>
-  <si>
-    <t>Sort table by Employee</t>
-  </si>
-  <si>
-    <t>1. Press AllHoliday link                          2. Press Employee</t>
-  </si>
-  <si>
-    <t>The user can sort informaion by Employee</t>
-  </si>
-  <si>
-    <t>The information can be sorted by Employee</t>
-  </si>
-  <si>
-    <t>Employee Page</t>
-  </si>
-  <si>
-    <t>TC 069</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>An error message is display above  fields  "End Date must be greater than Start Date".</t>
+  </si>
+  <si>
+    <t>The user is redirected to My Holiday page.</t>
+  </si>
+  <si>
+    <t>The user is redirected to My Holiday Page and no Holiday Request is created.</t>
+  </si>
+  <si>
+    <t>The Holiday Request is updated and site return too My Holiday Page.</t>
+  </si>
+  <si>
+    <t>The Modified On Column change the Current Date Time.</t>
+  </si>
+  <si>
+    <t>An error message is display above fields "There are holidays between 02/06/2020 and 02/06/2020. Please re-enter".</t>
+  </si>
+  <si>
+    <t>User is redirected to My Holiday Page.</t>
+  </si>
+  <si>
+    <t>Holiday Request deleted.</t>
+  </si>
+  <si>
+    <t>The fields appear in HolidayRequestTable in DB.</t>
+  </si>
+  <si>
+    <t>The format of Holiday Request on user is a table form with columns (in order): 
+Start Date, End Date, Days, Type, Status,Modified on, Approved.</t>
+  </si>
+  <si>
+    <t>The number of Current Year Holidays is 21.</t>
+  </si>
+  <si>
+    <t>The number of Current Year Holidays is 21 by default.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The FullName is changed. In the right corner of page appear you new FullName.</t>
+  </si>
+  <si>
+    <t>The UserName field doesn't allowed focus.</t>
+  </si>
+  <si>
+    <t>After user press Update Password Button an error message appear  above fields "Incorrect password.".</t>
+  </si>
+  <si>
+    <t>The error message is display above fields "Incorrect password.".</t>
+  </si>
+  <si>
+    <t>The error message is display above fields and under New Password field  "The New password must be at least 6 and at max 100 characters long.".</t>
+  </si>
+  <si>
+    <t>The error message is display under Confirm Password field  "The new password and confirmation password do not match.".</t>
+  </si>
+  <si>
+    <t>The user data is download on Json format.</t>
+  </si>
+  <si>
+    <t>The account is deleted permanently.</t>
+  </si>
+  <si>
+    <t>The StartDate can be sorted ascendent and descendent.</t>
+  </si>
+  <si>
+    <t>The EndDate column can be sorted ascendent and descendent.</t>
+  </si>
+  <si>
+    <t>The Days column can be sorted ascendent and descendent.</t>
+  </si>
+  <si>
+    <t>The Type column can be sorted ascendent and descendent.</t>
+  </si>
+  <si>
+    <t>The Type  column can be sorted ascendent and descendent.</t>
+  </si>
+  <si>
+    <t>The admin can login is his/her account and has  acces to the following pages:                                                                   - My Holidays;                                                                                 -All Holidays;                                                                                            -Employees.</t>
+  </si>
+  <si>
+    <t>The All Holiday table contains the following columns: StartDate, EndDate, Days, Status, Type, ModifiedOn, Employee (FullName) and a Edit Button.</t>
+  </si>
+  <si>
+    <t>On admin account, on My Holiday Page appear just the user Holiday Requests.</t>
+  </si>
+  <si>
+    <t>User can sort information about HolidayRequest StartDate ascendent or descendent.</t>
+  </si>
+  <si>
+    <t>User can sort information about StartDate ascendent or descendent.</t>
+  </si>
+  <si>
+    <t>User can sort information about Holiday Request  EndDate ascendent or descendent.</t>
+  </si>
+  <si>
+    <t>The user can sort information by number of Days.</t>
+  </si>
+  <si>
+    <t>User can sort information by number of Days.</t>
+  </si>
+  <si>
+    <t>The user can sort information by Status.</t>
+  </si>
+  <si>
+    <t>User can sort information by Status.</t>
+  </si>
+  <si>
+    <t>The user can sort information by Type.</t>
+  </si>
+  <si>
+    <t>The information can be sorted by Type.</t>
+  </si>
+  <si>
+    <t>The user can sort information by Modified On date.</t>
+  </si>
+  <si>
+    <t>The infromation cand be sorted by ModifiedOn.</t>
+  </si>
+  <si>
+    <t>The user can sort informaion by Employee.</t>
+  </si>
+  <si>
+    <t>The information can be sorted by Employee.</t>
+  </si>
+  <si>
+    <t>The format of Edit Page</t>
+  </si>
+  <si>
+    <t>Click on EditButton</t>
+  </si>
+  <si>
+    <t>On Page, appear the name of the employee, Department field, CurrentYearHoliday field, checkbox IsAdmin?, Save button and BacktoList Button.</t>
+  </si>
+  <si>
+    <t>30.03.2020</t>
+  </si>
+  <si>
+    <t>3. Value: Random number                                                                    4. Department: HR</t>
+  </si>
+  <si>
+    <t>No error message was display, the Edit was saved.</t>
+  </si>
+  <si>
+    <t>Site is loading and the Login Page appear. Just the link for My Holidays appear.</t>
   </si>
 </sst>
 </file>
@@ -1999,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,10 +2180,10 @@
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="10" t="s">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -2081,27 +2209,27 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -2111,19 +2239,19 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
-        <v>134</v>
+        <v>393</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>134</v>
+        <v>393</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2131,29 +2259,29 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -2170,22 +2298,22 @@
         <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>128</v>
+        <v>324</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>128</v>
+        <v>324</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2205,19 +2333,19 @@
         <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2237,19 +2365,19 @@
         <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -2269,19 +2397,19 @@
         <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>146</v>
+        <v>325</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -2289,31 +2417,31 @@
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>147</v>
+        <v>326</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2321,60 +2449,60 @@
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2388,25 +2516,25 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>58</v>
+        <v>328</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>152</v>
+        <v>329</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2420,25 +2548,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>63</v>
+        <v>330</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>156</v>
+        <v>331</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2452,25 +2580,25 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>62</v>
+        <v>332</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>152</v>
+        <v>329</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -2481,7 +2609,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>24</v>
@@ -2490,19 +2618,19 @@
         <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>158</v>
+        <v>333</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>158</v>
+        <v>333</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2510,237 +2638,237 @@
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>61</v>
+        <v>334</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>159</v>
+        <v>335</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>137</v>
+        <v>337</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>141</v>
+        <v>339</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>89</v>
+        <v>340</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>161</v>
+        <v>341</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>163</v>
+        <v>342</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>259</v>
+        <v>342</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>184</v>
+        <v>344</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -2748,911 +2876,911 @@
     </row>
     <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>106</v>
+        <v>345</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>190</v>
+        <v>346</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>108</v>
+        <v>347</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>173</v>
+        <v>348</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>179</v>
+        <v>349</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>196</v>
+        <v>351</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>196</v>
+        <v>351</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>108</v>
+        <v>347</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>197</v>
+        <v>352</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>198</v>
+        <v>353</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>108</v>
+        <v>347</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>108</v>
+        <v>347</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>119</v>
+        <v>354</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>119</v>
+        <v>354</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>123</v>
+        <v>355</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>123</v>
+        <v>355</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>204</v>
+        <v>356</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>205</v>
+        <v>357</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>215</v>
+        <v>358</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>215</v>
+        <v>358</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>214</v>
+        <v>359</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>214</v>
+        <v>359</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>222</v>
+        <v>360</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>223</v>
+        <v>361</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>227</v>
+        <v>362</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>227</v>
+        <v>362</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>232</v>
+        <v>363</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>232</v>
+        <v>363</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="1" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>240</v>
+        <v>365</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>240</v>
+        <v>365</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="1" t="s">
-        <v>243</v>
+        <v>366</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>243</v>
+        <v>366</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="1" t="s">
-        <v>246</v>
+        <v>367</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>246</v>
+        <v>367</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="1" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="1" t="s">
-        <v>252</v>
+        <v>369</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="1" t="s">
-        <v>252</v>
+        <v>369</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>252</v>
+        <v>369</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3663,10 +3791,10 @@
     </row>
     <row r="56" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>316</v>
+        <v>248</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="2"/>
@@ -3676,488 +3804,485 @@
     </row>
     <row r="57" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>273</v>
+        <v>371</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>273</v>
+        <v>371</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>269</v>
+        <v>217</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>301</v>
+        <v>242</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="1" t="s">
-        <v>303</v>
+        <v>372</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>303</v>
+        <v>372</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="1" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>320</v>
+        <v>252</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="1" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>323</v>
+        <v>254</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>308</v>
+        <v>22</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>325</v>
+        <v>256</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>328</v>
+        <v>259</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>309</v>
+        <v>26</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>329</v>
+        <v>260</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>330</v>
+        <v>261</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>331</v>
+        <v>262</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>331</v>
+        <v>262</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>310</v>
+        <v>27</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>311</v>
+        <v>87</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>337</v>
+        <v>268</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>342</v>
+        <v>270</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>314</v>
+        <v>28</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>343</v>
+        <v>271</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>344</v>
+        <v>272</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>313</v>
+        <v>30</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>347</v>
+        <v>31</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>355</v>
+        <v>276</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>348</v>
+        <v>32</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>358</v>
+        <v>277</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>359</v>
+        <v>278</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>349</v>
+        <v>62</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>362</v>
+        <v>279</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>363</v>
+        <v>280</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>316</v>
+        <v>248</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -4168,107 +4293,428 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-    </row>
-    <row r="81" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-    </row>
-    <row r="82" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-    </row>
-    <row r="83" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-    </row>
-    <row r="84" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-    </row>
-    <row r="85" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-    </row>
-    <row r="86" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-    </row>
-    <row r="87" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-    </row>
-    <row r="88" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-    </row>
-    <row r="89" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -4468,7 +4914,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4478,17 +4924,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
